--- a/biology/Botanique/McCain_Foods/McCain_Foods.xlsx
+++ b/biology/Botanique/McCain_Foods/McCain_Foods.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 McCain Foods Limited, fondée en 1957, est une entreprise canadienne spécialisée dans la transformation et la distribution de produits alimentaires. Elle est surtout connue en tant que productrice de frites surgelées.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La société McCain Foods emploie environ 20 000 personnes dans ses 55 usines à travers le monde[réf. nécessaire].
 La société n'est pas cotée en bourse ; les actions appartiennent toutes à la famille fondatrice[réf. nécessaire]
@@ -545,11 +559,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est fondée en 1957 par deux frères, Harrison et Wallace McCain à Florenceville-Bristol au Nouveau-Brunswick. Leur neveu Allison McCain est le président du conseil d'administration depuis 2002.
-Elle invente le procédé de la surgélation de la pomme de terre frite[1]. 
-En juillet 2012, McCain Foods rachète CêlaVíta, société néerlandaise basée à Wezep, numéro un de la pomme de terre fraîche au Benelux[2]. Trois mois plus tard, en octobre, McCain reprend l'entreprise Belge Lutosa[3].
+Elle invente le procédé de la surgélation de la pomme de terre frite. 
+En juillet 2012, McCain Foods rachète CêlaVíta, société néerlandaise basée à Wezep, numéro un de la pomme de terre fraîche au Benelux. Trois mois plus tard, en octobre, McCain reprend l'entreprise Belge Lutosa.
 </t>
         </is>
       </c>
@@ -580,24 +596,233 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Australie
-McCain Food Australie (Victoria)
-Kitchen of Sara Lee (Victoria)
-Canada
-McCain Foods (Canada) (Florenceville) ;
+          <t>Australie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>McCain Food Australie (Victoria)
+Kitchen of Sara Lee (Victoria)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>McCain_Foods</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/McCain_Foods</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Filiales</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>McCain Foods (Canada) (Florenceville) ;
 Wong Wing Foods (Montréal), spécialités chinoises, société acquise en 2002 ;
-Day &amp; Ross Transportation Group (Hartland (Nouveau-Brunswick)), un des principaux transporteurs routiers du Canada, fondé en 1950 et racheté par McCain Foods en 1965[4].
-États-Unis
-McCain Foods États-Unis (Lisle (Illinois))
-Infinity Foods : Plover (Wisconsin)
-Europe continentale
-Le siège régional est situé à Villeneuve-d'Ascq, à la Haute Borne.
-France
-Mc Cain Alimentaire SAS, siège à Harnes, trois usines à Béthune, Harnes et Matougues[5].
-Belgique
-Lutosa - Leuze en Hainaut
-Pays-Bas
-Service alimentaire McCain (Hollande)
+Day &amp; Ross Transportation Group (Hartland (Nouveau-Brunswick)), un des principaux transporteurs routiers du Canada, fondé en 1950 et racheté par McCain Foods en 1965.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>McCain_Foods</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/McCain_Foods</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Filiales</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>McCain Foods États-Unis (Lisle (Illinois))
+Infinity Foods : Plover (Wisconsin)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>McCain_Foods</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/McCain_Foods</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Filiales</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Europe continentale</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le siège régional est situé à Villeneuve-d'Ascq, à la Haute Borne.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>McCain_Foods</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/McCain_Foods</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Filiales</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Mc Cain Alimentaire SAS, siège à Harnes, trois usines à Béthune, Harnes et Matougues.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>McCain_Foods</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/McCain_Foods</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Filiales</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Lutosa - Leuze en Hainaut</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>McCain_Foods</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/McCain_Foods</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Filiales</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Pays-Bas</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Service alimentaire McCain (Hollande)
 CêlaVíta (Wezep)
 Van Geloven (Tilbourg)</t>
         </is>
